--- a/Temp_Amp_01/Release/BOM/Bill of Materials-TMP-1-A.xlsx
+++ b/Temp_Amp_01/Release/BOM/Bill of Materials-TMP-1-A.xlsx
@@ -78,7 +78,7 @@
     <t>Mounting hole, 4.2mm</t>
   </si>
   <si>
-    <t>MH1, MH2</t>
+    <t>MH1, MH2, MH3, MH4</t>
   </si>
   <si>
     <t>RES SMD 750K OHM 1% 1/10W 0603</t>
@@ -108,13 +108,13 @@
     <t>CRCW06031K00FKEA</t>
   </si>
   <si>
-    <t>YAGEO - RC0603FR-07200KL - SMD Chip Resistor, 0603 [1608 Metric], 200 kohm, RC Series, 75 V, Thick Film, 100 mW</t>
+    <t>RES 100K OHM 1% 1/10W 0603</t>
   </si>
   <si>
     <t>R4</t>
   </si>
   <si>
-    <t>RC0603FR-07200KL</t>
+    <t>RMCF0603FT100K</t>
   </si>
   <si>
     <t>75 kohm, 75 V, 0603 [1608 Metric], 100 mW,  1%</t>
@@ -562,7 +562,7 @@
         <v>20</v>
       </c>
       <c r="C7" s="46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="45"/>
     </row>
